--- a/Sentia Log.xlsx
+++ b/Sentia Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91222B9-8838-4609-AECE-0C4AD18B6925}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A45C20-23DF-4525-85B0-828C2965C972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9B456169-743D-4BAD-831A-C8C345028977}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Visual Studio geïnstalleerd, web apps zijn .NET CORE 4.5. Web-app geconfigureerd. Beide webpagina's geconfigureerd. 100% identiek, op de locatie na. Als je op de Europese locatie komt staat er 'Europe', als je op de Amerikaanse pagina komt staat er 'America'.</t>
   </si>
   <si>
-    <t>Traffic Manager geconfigureerd. Load balancing geconfigureerd op basis van geografische locaties. Getest d.m.v. VPN, werkte in één keer.</t>
-  </si>
-  <si>
     <t>6: Use tags to group the resources.</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>https://docs.microsoft.com/en-us/azure/traffic-manager/traffic-manager-how-it-works</t>
+  </si>
+  <si>
+    <t>Traffic Manager geconfigureerd. Load balancing geconfigureerd op basis van geografische locaties. Getest d.m.v. VPN, werkte in één keer. Mijn aanname is om Traffic Manager te gebruiken en geen Load Balancer, omdat er in mijn omgeving geen sprake is van VM's die ge-loadbalanced moeten worden. Ik heb wel voor beide web-apps twee instances geconfigureerd zodat er interne load-balancing plaats vindt.</t>
   </si>
 </sst>
 </file>
@@ -525,13 +525,13 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="125.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,12 +752,12 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>43702</v>
@@ -769,12 +769,12 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>43702</v>
@@ -783,15 +783,15 @@
         <v>6.25E-2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>43702</v>
@@ -800,7 +800,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
